--- a/trunk/docs/Schedule/vnandroidapps-alarmclock-schedule-v1.0.xlsx
+++ b/trunk/docs/Schedule/vnandroidapps-alarmclock-schedule-v1.0.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$6:$K$24</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Project Name: Alarm Clock</t>
+  </si>
+  <si>
+    <t>Specialize Document</t>
   </si>
 </sst>
 </file>
@@ -104,7 +107,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -163,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -227,11 +230,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -243,21 +270,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -265,12 +277,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -283,24 +289,57 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,393 +634,485 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K22"/>
+  <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="3" max="3" width="42.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="4"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="11.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24" customHeight="1">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="6" spans="2:11" s="3" customFormat="1">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26" t="s">
+      <c r="F6" s="26"/>
+      <c r="G6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="17">
+      <c r="B7" s="30">
         <v>1</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="32">
+      <c r="F7" s="13"/>
+      <c r="G7" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="24">
         <v>40825</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="24">
         <v>40837</v>
       </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
+      <c r="J7" s="24">
+        <v>40853</v>
+      </c>
+      <c r="K7" s="24"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="11" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="8">
+      <c r="B9" s="25">
         <v>2</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="32">
+      <c r="F9" s="10"/>
+      <c r="G9" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="24">
         <v>40825</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="24">
         <v>40837</v>
       </c>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
+      <c r="J9" s="24">
+        <v>40853</v>
+      </c>
+      <c r="K9" s="24"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="11" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
     </row>
     <row r="11" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B11" s="8">
+      <c r="B11" s="25">
         <v>3</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="24">
+        <v>40825</v>
+      </c>
+      <c r="I11" s="24">
+        <v>40837</v>
+      </c>
+      <c r="J11" s="24">
+        <v>40853</v>
+      </c>
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="25"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="25">
+        <v>4</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="24">
+        <v>40825</v>
+      </c>
+      <c r="I13" s="24">
+        <v>40837</v>
+      </c>
+      <c r="J13" s="24">
+        <v>40853</v>
+      </c>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="25"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="2:11" ht="16.5" customHeight="1">
+      <c r="B15" s="25">
+        <v>5</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="24">
+        <v>40825</v>
+      </c>
+      <c r="I15" s="24">
+        <v>40837</v>
+      </c>
+      <c r="J15" s="24">
+        <v>40853</v>
+      </c>
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="25"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="25">
+        <v>6</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="24">
+        <v>40825</v>
+      </c>
+      <c r="I17" s="24">
+        <v>40837</v>
+      </c>
+      <c r="J17" s="24">
+        <v>40853</v>
+      </c>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="25"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="25">
+        <v>7</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="10">
+        <v>4</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1</v>
+      </c>
+      <c r="H19" s="24">
+        <v>40825</v>
+      </c>
+      <c r="I19" s="24">
+        <v>40827</v>
+      </c>
+      <c r="J19" s="24">
+        <v>40853</v>
+      </c>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="25"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="7">
+        <v>4</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="36">
+        <v>8</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="32">
+      <c r="F21" s="10"/>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="24">
         <v>40825</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I21" s="24">
         <v>40837</v>
       </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="8"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="11" t="s">
+      <c r="J21" s="24">
+        <v>40853</v>
+      </c>
+      <c r="K21" s="35"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="30"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="8">
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B23" s="25">
+        <v>9</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11">
+        <v>0</v>
+      </c>
+      <c r="H23" s="24">
+        <v>40825</v>
+      </c>
+      <c r="I23" s="24">
+        <v>40838</v>
+      </c>
+      <c r="J23" s="24">
+        <v>40853</v>
+      </c>
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="25"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="32">
-        <v>40825</v>
-      </c>
-      <c r="I13" s="32">
-        <v>40837</v>
-      </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="8"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-    </row>
-    <row r="15" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B15" s="8">
-        <v>5</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="32">
-        <v>40825</v>
-      </c>
-      <c r="I15" s="32">
-        <v>40837</v>
-      </c>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="8"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="8">
-        <v>6</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="32">
-        <v>40825</v>
-      </c>
-      <c r="I17" s="32">
-        <v>40837</v>
-      </c>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="8"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="8">
-        <v>7</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="15">
-        <v>4</v>
-      </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="32">
-        <v>40825</v>
-      </c>
-      <c r="I19" s="32">
-        <v>40827</v>
-      </c>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="8"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="12">
-        <v>4</v>
-      </c>
-      <c r="G20" s="13">
-        <v>1</v>
-      </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="8">
-        <v>8</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="32">
-        <v>40825</v>
-      </c>
-      <c r="I21" s="32">
-        <v>40838</v>
-      </c>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="8"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <autoFilter ref="B6:K24">
+    <filterColumn colId="3" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="30">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
@@ -989,22 +1120,11 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D92">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D94">
       <formula1>"Binh, Duoc, Hieu, Nam, Phu, S.Anh"</formula1>
     </dataValidation>
   </dataValidations>
